--- a/fadu_data_all_for_plot with counts.xlsx
+++ b/fadu_data_all_for_plot with counts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serebrii/Work/Flavi_screen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5932AB7E-72AF-654E-81DA-D6A5B1219F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D731515C-BA48-CB4A-A3D8-E15503080C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="3340" windowWidth="29640" windowHeight="12280"/>
   </bookViews>
@@ -656,7 +656,27 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -699,6 +719,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF4D51"/>
+      <color rgb="FFF0E4D7"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1009,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="90" workbookViewId="0">
+      <selection activeCell="G140" sqref="G140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11792,11 +11818,21 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="J2:M238">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>1.15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>0.85</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:E238">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF0E4D7"/>
+        <color rgb="FFFF4D51"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
